--- a/data/pca/factorExposure/factorExposure_2016-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01364400736847575</v>
+        <v>-0.01603084233255429</v>
       </c>
       <c r="C2">
-        <v>0.0585636238500396</v>
+        <v>0.04235736372352481</v>
       </c>
       <c r="D2">
-        <v>-0.03259200245765605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07649790276302525</v>
+      </c>
+      <c r="E2">
+        <v>-0.1254257818380895</v>
+      </c>
+      <c r="F2">
+        <v>0.03513014789845195</v>
+      </c>
+      <c r="G2">
+        <v>-0.001997239469766446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04347289579701875</v>
+        <v>-0.02690966987091818</v>
       </c>
       <c r="C3">
-        <v>0.1237780819139327</v>
+        <v>0.06721848967478927</v>
       </c>
       <c r="D3">
-        <v>-0.05868058220717359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0777007175769283</v>
+      </c>
+      <c r="E3">
+        <v>-0.07186474423760469</v>
+      </c>
+      <c r="F3">
+        <v>-0.06106105996478133</v>
+      </c>
+      <c r="G3">
+        <v>0.110191728753897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05951927116002002</v>
+        <v>-0.06022477276830986</v>
       </c>
       <c r="C4">
-        <v>0.0609056296224473</v>
+        <v>0.06187523599611695</v>
       </c>
       <c r="D4">
-        <v>-0.0243537267971239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06840538975948252</v>
+      </c>
+      <c r="E4">
+        <v>-0.1190354956354697</v>
+      </c>
+      <c r="F4">
+        <v>-0.02983655701521712</v>
+      </c>
+      <c r="G4">
+        <v>-0.04747546697872089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04284636022653265</v>
+        <v>-0.03997294223258452</v>
       </c>
       <c r="C6">
-        <v>0.03799197775734194</v>
+        <v>0.02798643853539826</v>
       </c>
       <c r="D6">
-        <v>-0.02448771083054429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07470219345158038</v>
+      </c>
+      <c r="E6">
+        <v>-0.1030275637908265</v>
+      </c>
+      <c r="F6">
+        <v>-0.02739067682221117</v>
+      </c>
+      <c r="G6">
+        <v>0.0004522558293827067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03043821166192674</v>
+        <v>-0.02302169879689</v>
       </c>
       <c r="C7">
-        <v>0.03556733890025841</v>
+        <v>0.0347867166640669</v>
       </c>
       <c r="D7">
-        <v>-0.003718339118426513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05697971400758896</v>
+      </c>
+      <c r="E7">
+        <v>-0.09460626870716739</v>
+      </c>
+      <c r="F7">
+        <v>-0.003291189766404774</v>
+      </c>
+      <c r="G7">
+        <v>-0.08778651436959867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01090308335825252</v>
+        <v>-0.008760496677937147</v>
       </c>
       <c r="C8">
-        <v>0.04521896383812225</v>
+        <v>0.03657960135376005</v>
       </c>
       <c r="D8">
-        <v>-0.02786303265618238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04832120557733079</v>
+      </c>
+      <c r="E8">
+        <v>-0.07144071459223687</v>
+      </c>
+      <c r="F8">
+        <v>-0.0174611218021959</v>
+      </c>
+      <c r="G8">
+        <v>0.008224243009419359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03968989000841814</v>
+        <v>-0.04285557486109283</v>
       </c>
       <c r="C9">
-        <v>0.04356273064147181</v>
+        <v>0.04892526110296287</v>
       </c>
       <c r="D9">
-        <v>-0.02224542873481725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05863671382301266</v>
+      </c>
+      <c r="E9">
+        <v>-0.09891866644760056</v>
+      </c>
+      <c r="F9">
+        <v>-0.008212493448371081</v>
+      </c>
+      <c r="G9">
+        <v>-0.04812964976834695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07372189916438641</v>
+        <v>-0.1015038830714313</v>
       </c>
       <c r="C10">
-        <v>-0.1889375685763626</v>
+        <v>-0.2015759691577791</v>
       </c>
       <c r="D10">
-        <v>-0.002543099306813673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007861406895285332</v>
+      </c>
+      <c r="E10">
+        <v>-0.04158238461715116</v>
+      </c>
+      <c r="F10">
+        <v>0.001131704540510582</v>
+      </c>
+      <c r="G10">
+        <v>-0.02511507692897871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04523085604247457</v>
+        <v>-0.03853899913400358</v>
       </c>
       <c r="C11">
-        <v>0.05021494140895594</v>
+        <v>0.04752793386700954</v>
       </c>
       <c r="D11">
-        <v>-0.01928086059361248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04130810048336551</v>
+      </c>
+      <c r="E11">
+        <v>-0.0453167103708483</v>
+      </c>
+      <c r="F11">
+        <v>-0.008269598924358811</v>
+      </c>
+      <c r="G11">
+        <v>-0.05781686252292666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04881418199498088</v>
+        <v>-0.04097085088238586</v>
       </c>
       <c r="C12">
-        <v>0.04494249279222199</v>
+        <v>0.04557772227923529</v>
       </c>
       <c r="D12">
-        <v>-0.001164414604151925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03522505320617669</v>
+      </c>
+      <c r="E12">
+        <v>-0.05439053296899977</v>
+      </c>
+      <c r="F12">
+        <v>-0.004459936070294196</v>
+      </c>
+      <c r="G12">
+        <v>-0.05033872336189074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01817917769205878</v>
+        <v>-0.01645545067433957</v>
       </c>
       <c r="C13">
-        <v>0.05387671263737365</v>
+        <v>0.04250010970292006</v>
       </c>
       <c r="D13">
-        <v>-0.008150292117791337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06622380740265876</v>
+      </c>
+      <c r="E13">
+        <v>-0.1332702048825258</v>
+      </c>
+      <c r="F13">
+        <v>-0.01890892814755142</v>
+      </c>
+      <c r="G13">
+        <v>-0.05278329123794256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01347423710142506</v>
+        <v>-0.008089105058043935</v>
       </c>
       <c r="C14">
-        <v>0.03511110835553387</v>
+        <v>0.03009691737340437</v>
       </c>
       <c r="D14">
-        <v>-0.0003767700933983452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04227085447873512</v>
+      </c>
+      <c r="E14">
+        <v>-0.08954463509252435</v>
+      </c>
+      <c r="F14">
+        <v>0.01344947190397257</v>
+      </c>
+      <c r="G14">
+        <v>-0.05434413406530862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.000355228951617868</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006138272831083274</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0108392296741755</v>
+      </c>
+      <c r="E15">
+        <v>-0.01262543821015678</v>
+      </c>
+      <c r="F15">
+        <v>4.084028421526764e-06</v>
+      </c>
+      <c r="G15">
+        <v>-0.001446627780121854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04392710088516875</v>
+        <v>-0.03741733100193952</v>
       </c>
       <c r="C16">
-        <v>0.04777372473623103</v>
+        <v>0.04507297306756484</v>
       </c>
       <c r="D16">
-        <v>-0.005443267227798633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03559862368525728</v>
+      </c>
+      <c r="E16">
+        <v>-0.05944060446768833</v>
+      </c>
+      <c r="F16">
+        <v>0.006906275676775222</v>
+      </c>
+      <c r="G16">
+        <v>-0.04614955748187836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02526850731050318</v>
+        <v>-0.01868634725617177</v>
       </c>
       <c r="C19">
-        <v>0.06127869471033777</v>
+        <v>0.04400063804434441</v>
       </c>
       <c r="D19">
-        <v>-0.06706481427247912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09552615606371902</v>
+      </c>
+      <c r="E19">
+        <v>-0.1284751838347177</v>
+      </c>
+      <c r="F19">
+        <v>0.01124704290017954</v>
+      </c>
+      <c r="G19">
+        <v>-0.001738500191096945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02238955315235763</v>
+        <v>-0.01768584807911344</v>
       </c>
       <c r="C20">
-        <v>0.04669293639168464</v>
+        <v>0.03923733422397924</v>
       </c>
       <c r="D20">
-        <v>-0.006108479161953935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04873452866315653</v>
+      </c>
+      <c r="E20">
+        <v>-0.1041378454153766</v>
+      </c>
+      <c r="F20">
+        <v>-0.001142389036501095</v>
+      </c>
+      <c r="G20">
+        <v>-0.03016235867004858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02191392562551657</v>
+        <v>-0.01666964456779747</v>
       </c>
       <c r="C21">
-        <v>0.05655355916074688</v>
+        <v>0.04572040254315685</v>
       </c>
       <c r="D21">
-        <v>-0.02089077419348141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07367586023774128</v>
+      </c>
+      <c r="E21">
+        <v>-0.1559664371691652</v>
+      </c>
+      <c r="F21">
+        <v>0.01634129834753837</v>
+      </c>
+      <c r="G21">
+        <v>-0.06460177157151441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001167439206808675</v>
+        <v>-0.005398452647346867</v>
       </c>
       <c r="C22">
-        <v>0.01419389392625748</v>
+        <v>0.02899481435005341</v>
       </c>
       <c r="D22">
-        <v>-0.02515399835029844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06433814189795795</v>
+      </c>
+      <c r="E22">
+        <v>-0.07705717971864245</v>
+      </c>
+      <c r="F22">
+        <v>-0.06661306406526127</v>
+      </c>
+      <c r="G22">
+        <v>0.02949865039329623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001178672125324274</v>
+        <v>-0.005517401953865753</v>
       </c>
       <c r="C23">
-        <v>0.0142071148245276</v>
+        <v>0.02905343056320603</v>
       </c>
       <c r="D23">
-        <v>-0.02511577255013044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06364848391767262</v>
+      </c>
+      <c r="E23">
+        <v>-0.07719555167649914</v>
+      </c>
+      <c r="F23">
+        <v>-0.06658152322737573</v>
+      </c>
+      <c r="G23">
+        <v>0.02897751813001073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04062055415256979</v>
+        <v>-0.03822067582170567</v>
       </c>
       <c r="C24">
-        <v>0.04848702557714617</v>
+        <v>0.05266054735172023</v>
       </c>
       <c r="D24">
-        <v>-0.01186397751850616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03785362557613994</v>
+      </c>
+      <c r="E24">
+        <v>-0.06510353683633537</v>
+      </c>
+      <c r="F24">
+        <v>0.003597372367528899</v>
+      </c>
+      <c r="G24">
+        <v>-0.06174144072152249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05102862255154535</v>
+        <v>-0.04493440644575401</v>
       </c>
       <c r="C25">
-        <v>0.05748398113741512</v>
+        <v>0.0551519816612388</v>
       </c>
       <c r="D25">
-        <v>-0.005322187068438042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0345947137424301</v>
+      </c>
+      <c r="E25">
+        <v>-0.05689080608288851</v>
+      </c>
+      <c r="F25">
+        <v>-0.01069232412963934</v>
+      </c>
+      <c r="G25">
+        <v>-0.06854783350127257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02209548837403084</v>
+        <v>-0.01932677055849419</v>
       </c>
       <c r="C26">
-        <v>0.01393501841099849</v>
+        <v>0.01589402774228877</v>
       </c>
       <c r="D26">
-        <v>-0.01392940041382634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03894560318619323</v>
+      </c>
+      <c r="E26">
+        <v>-0.06950019451571464</v>
+      </c>
+      <c r="F26">
+        <v>0.01505102930467154</v>
+      </c>
+      <c r="G26">
+        <v>-0.02663050079106579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09075701935629892</v>
+        <v>-0.1391037313965689</v>
       </c>
       <c r="C28">
-        <v>-0.2596563656825097</v>
+        <v>-0.2614289013319736</v>
       </c>
       <c r="D28">
-        <v>0.008149280829015814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02508474811680932</v>
+      </c>
+      <c r="E28">
+        <v>-0.06393505468794665</v>
+      </c>
+      <c r="F28">
+        <v>0.001199939881238028</v>
+      </c>
+      <c r="G28">
+        <v>-0.05897468234014161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.010934816736112</v>
+        <v>-0.008117834180052302</v>
       </c>
       <c r="C29">
-        <v>0.03030161169300035</v>
+        <v>0.02761799118947226</v>
       </c>
       <c r="D29">
-        <v>0.004471040845904558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03512911791316194</v>
+      </c>
+      <c r="E29">
+        <v>-0.08369047283970685</v>
+      </c>
+      <c r="F29">
+        <v>0.003187679014592538</v>
+      </c>
+      <c r="G29">
+        <v>-0.05918070779377393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04526457670001027</v>
+        <v>-0.04507936742599234</v>
       </c>
       <c r="C30">
-        <v>0.04921993225394449</v>
+        <v>0.05557468798185004</v>
       </c>
       <c r="D30">
-        <v>-0.08156306287278242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.121353818209722</v>
+      </c>
+      <c r="E30">
+        <v>-0.1122159478990655</v>
+      </c>
+      <c r="F30">
+        <v>-0.004232850888135254</v>
+      </c>
+      <c r="G30">
+        <v>-0.002281736546017667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06661974835929681</v>
+        <v>-0.06331576670151216</v>
       </c>
       <c r="C31">
-        <v>0.04459068860688277</v>
+        <v>0.05999058266577686</v>
       </c>
       <c r="D31">
-        <v>0.03813948950050711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0006304790286441262</v>
+      </c>
+      <c r="E31">
+        <v>-0.08762487707190197</v>
+      </c>
+      <c r="F31">
+        <v>-0.03263928384075457</v>
+      </c>
+      <c r="G31">
+        <v>-0.03498093204433623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007315892291761275</v>
+        <v>-0.01180453276609037</v>
       </c>
       <c r="C32">
-        <v>0.03417815965073347</v>
+        <v>0.03154957730933521</v>
       </c>
       <c r="D32">
-        <v>-0.05834457185187026</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0688181808864531</v>
+      </c>
+      <c r="E32">
+        <v>-0.08395247096193688</v>
+      </c>
+      <c r="F32">
+        <v>0.02252540515074905</v>
+      </c>
+      <c r="G32">
+        <v>-0.05626743867409705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03697941138954383</v>
+        <v>-0.03019215350261907</v>
       </c>
       <c r="C33">
-        <v>0.05783928217623469</v>
+        <v>0.0514241122481259</v>
       </c>
       <c r="D33">
-        <v>-0.04232084648727129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08689139426806916</v>
+      </c>
+      <c r="E33">
+        <v>-0.1188510482263807</v>
+      </c>
+      <c r="F33">
+        <v>-0.01497727770702982</v>
+      </c>
+      <c r="G33">
+        <v>-0.05555728244502381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04567335459956944</v>
+        <v>-0.04059261686359724</v>
       </c>
       <c r="C34">
-        <v>0.06382962890239491</v>
+        <v>0.06263408168012005</v>
       </c>
       <c r="D34">
-        <v>-0.02571413070647272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04457097819162437</v>
+      </c>
+      <c r="E34">
+        <v>-0.04557374976535958</v>
+      </c>
+      <c r="F34">
+        <v>0.001478836916448275</v>
+      </c>
+      <c r="G34">
+        <v>-0.06929604892544086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.803830912507406e-06</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002431466741408427</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0001671666276100994</v>
+      </c>
+      <c r="E35">
+        <v>0.0005712491921677576</v>
+      </c>
+      <c r="F35">
+        <v>0.0002974237082773194</v>
+      </c>
+      <c r="G35">
+        <v>-0.000443173948757727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0210884201691264</v>
+        <v>-0.01827002510937245</v>
       </c>
       <c r="C36">
-        <v>0.01526034537984569</v>
+        <v>0.01259650704703518</v>
       </c>
       <c r="D36">
-        <v>-0.003485528868965812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03816305155872437</v>
+      </c>
+      <c r="E36">
+        <v>-0.0821862068116225</v>
+      </c>
+      <c r="F36">
+        <v>-0.0003822397276936695</v>
+      </c>
+      <c r="G36">
+        <v>-0.04376098557472728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03065911194521537</v>
+        <v>-0.0240106665762345</v>
       </c>
       <c r="C38">
-        <v>0.03186185664099837</v>
+        <v>0.0247114309590358</v>
       </c>
       <c r="D38">
-        <v>0.01372229580977939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02987771794407618</v>
+      </c>
+      <c r="E38">
+        <v>-0.07155400663226053</v>
+      </c>
+      <c r="F38">
+        <v>-0.002275965150893364</v>
+      </c>
+      <c r="G38">
+        <v>-0.002147101715851949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05234808759325266</v>
+        <v>-0.04478770334436004</v>
       </c>
       <c r="C39">
-        <v>0.05787908487863672</v>
+        <v>0.06123000946174288</v>
       </c>
       <c r="D39">
-        <v>-0.02721619317511862</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06664845789942389</v>
+      </c>
+      <c r="E39">
+        <v>-0.07692768778146687</v>
+      </c>
+      <c r="F39">
+        <v>0.02078854366092801</v>
+      </c>
+      <c r="G39">
+        <v>-0.05063506246156207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01613536439302507</v>
+        <v>-0.01721098845955059</v>
       </c>
       <c r="C40">
-        <v>0.05687898838464393</v>
+        <v>0.04033983124088181</v>
       </c>
       <c r="D40">
-        <v>-0.002566542115531131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04280799221978676</v>
+      </c>
+      <c r="E40">
+        <v>-0.1163105380208655</v>
+      </c>
+      <c r="F40">
+        <v>-0.02783280113170311</v>
+      </c>
+      <c r="G40">
+        <v>-0.04416014693751125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02552293673925672</v>
+        <v>-0.02162125799727452</v>
       </c>
       <c r="C41">
-        <v>0.01319238400101149</v>
+        <v>0.010068815051473</v>
       </c>
       <c r="D41">
-        <v>-0.001707758310571138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02571178607999436</v>
+      </c>
+      <c r="E41">
+        <v>-0.07724257685188167</v>
+      </c>
+      <c r="F41">
+        <v>-0.0003854065985893985</v>
+      </c>
+      <c r="G41">
+        <v>-0.02962266952244809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04817228334685754</v>
+        <v>-0.03357763755572626</v>
       </c>
       <c r="C43">
-        <v>0.03356604340782807</v>
+        <v>0.02413317178253334</v>
       </c>
       <c r="D43">
-        <v>-0.01401749875575248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05360649014655813</v>
+      </c>
+      <c r="E43">
+        <v>-0.09031848140851564</v>
+      </c>
+      <c r="F43">
+        <v>-0.02228070433535318</v>
+      </c>
+      <c r="G43">
+        <v>-0.04750777469785811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01942124220986624</v>
+        <v>-0.01987818778372022</v>
       </c>
       <c r="C44">
-        <v>0.0692779162683211</v>
+        <v>0.04851882186818265</v>
       </c>
       <c r="D44">
-        <v>0.01034093332984706</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04136116416881931</v>
+      </c>
+      <c r="E44">
+        <v>-0.1137356408384343</v>
+      </c>
+      <c r="F44">
+        <v>0.01172538972029179</v>
+      </c>
+      <c r="G44">
+        <v>-0.02861407357261418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01583901010680253</v>
+        <v>-0.01431599428663315</v>
       </c>
       <c r="C46">
-        <v>0.02631005195170857</v>
+        <v>0.02923095330964822</v>
       </c>
       <c r="D46">
-        <v>0.01202517620449961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02983137181235143</v>
+      </c>
+      <c r="E46">
+        <v>-0.09471426870445379</v>
+      </c>
+      <c r="F46">
+        <v>0.01670161047270123</v>
+      </c>
+      <c r="G46">
+        <v>-0.0702098899659092</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09484337391266717</v>
+        <v>-0.09505206029109371</v>
       </c>
       <c r="C47">
-        <v>0.06468513479226012</v>
+        <v>0.0789214439637677</v>
       </c>
       <c r="D47">
-        <v>0.05085200365299038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01694985188332893</v>
+      </c>
+      <c r="E47">
+        <v>-0.07617047093274092</v>
+      </c>
+      <c r="F47">
+        <v>-0.01985217415338293</v>
+      </c>
+      <c r="G47">
+        <v>-0.06120076354153611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02311193248598951</v>
+        <v>-0.02029956394287006</v>
       </c>
       <c r="C48">
-        <v>0.01132778930533179</v>
+        <v>0.01464834294418198</v>
       </c>
       <c r="D48">
-        <v>0.01678117009062984</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02358118217609667</v>
+      </c>
+      <c r="E48">
+        <v>-0.09764356948977393</v>
+      </c>
+      <c r="F48">
+        <v>0.00632201589362697</v>
+      </c>
+      <c r="G48">
+        <v>-0.04895468826832177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08606427349171331</v>
+        <v>-0.07325974106652508</v>
       </c>
       <c r="C50">
-        <v>0.08352798713957901</v>
+        <v>0.07446828242476015</v>
       </c>
       <c r="D50">
-        <v>0.0525758835640306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001394849641495114</v>
+      </c>
+      <c r="E50">
+        <v>-0.09055804003636771</v>
+      </c>
+      <c r="F50">
+        <v>-0.05921448246571808</v>
+      </c>
+      <c r="G50">
+        <v>-0.03017060125520955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01626100165532892</v>
+        <v>-0.01217720628603375</v>
       </c>
       <c r="C51">
-        <v>0.0485172904879287</v>
+        <v>0.02965397073301355</v>
       </c>
       <c r="D51">
-        <v>-0.04766062754549479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07031510371209024</v>
+      </c>
+      <c r="E51">
+        <v>-0.0870323068916027</v>
+      </c>
+      <c r="F51">
+        <v>0.01411147665882869</v>
+      </c>
+      <c r="G51">
+        <v>-0.02725069476673656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08652149971617364</v>
+        <v>-0.09987947196341493</v>
       </c>
       <c r="C53">
-        <v>0.07709915058531921</v>
+        <v>0.0854446786193394</v>
       </c>
       <c r="D53">
-        <v>0.0707092251011664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05573114773639379</v>
+      </c>
+      <c r="E53">
+        <v>-0.08857623830347836</v>
+      </c>
+      <c r="F53">
+        <v>-0.01739395193372975</v>
+      </c>
+      <c r="G53">
+        <v>-0.06151424130803249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04088264685020009</v>
+        <v>-0.03237343110992612</v>
       </c>
       <c r="C54">
-        <v>0.03232562640082189</v>
+        <v>0.03073463787741413</v>
       </c>
       <c r="D54">
-        <v>-0.008092108965146227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0439096633495708</v>
+      </c>
+      <c r="E54">
+        <v>-0.0884636485123815</v>
+      </c>
+      <c r="F54">
+        <v>0.006024354253063741</v>
+      </c>
+      <c r="G54">
+        <v>-0.0592221199693871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08459158023934513</v>
+        <v>-0.09268626095286155</v>
       </c>
       <c r="C55">
-        <v>0.05071757756252056</v>
+        <v>0.0659586296834328</v>
       </c>
       <c r="D55">
-        <v>0.06729064986467298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0536996948556982</v>
+      </c>
+      <c r="E55">
+        <v>-0.05631693856347703</v>
+      </c>
+      <c r="F55">
+        <v>-0.02760253260839815</v>
+      </c>
+      <c r="G55">
+        <v>-0.02554911853958401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1502792950835551</v>
+        <v>-0.1541563793501438</v>
       </c>
       <c r="C56">
-        <v>0.08343079026549358</v>
+        <v>0.101608334323823</v>
       </c>
       <c r="D56">
-        <v>0.07031581659814454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05844558416307383</v>
+      </c>
+      <c r="E56">
+        <v>-0.04121973145356143</v>
+      </c>
+      <c r="F56">
+        <v>-0.02286230279132646</v>
+      </c>
+      <c r="G56">
+        <v>-0.03238423143999007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0506488861234436</v>
+        <v>-0.03818759902119431</v>
       </c>
       <c r="C58">
-        <v>-0.00305606732198466</v>
+        <v>0.01042511840000548</v>
       </c>
       <c r="D58">
-        <v>-0.1746746392922986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2662715245871252</v>
+      </c>
+      <c r="E58">
+        <v>-0.3439776639879715</v>
+      </c>
+      <c r="F58">
+        <v>-0.1843751439561661</v>
+      </c>
+      <c r="G58">
+        <v>0.6177232455023367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.12250360464308</v>
+        <v>-0.1420631445632329</v>
       </c>
       <c r="C59">
-        <v>-0.2101610997974153</v>
+        <v>-0.195011889298708</v>
       </c>
       <c r="D59">
-        <v>-0.03120203384566668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03481369709229293</v>
+      </c>
+      <c r="E59">
+        <v>-0.0346621407428886</v>
+      </c>
+      <c r="F59">
+        <v>0.02648525687609082</v>
+      </c>
+      <c r="G59">
+        <v>0.0204688204571484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2944256497522182</v>
+        <v>-0.2668514230607207</v>
       </c>
       <c r="C60">
-        <v>0.1033872721668134</v>
+        <v>0.09683749989077564</v>
       </c>
       <c r="D60">
-        <v>-0.272574307217551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2467735427149959</v>
+      </c>
+      <c r="E60">
+        <v>0.2612560272291402</v>
+      </c>
+      <c r="F60">
+        <v>-0.0889073307436741</v>
+      </c>
+      <c r="G60">
+        <v>-0.02844370421720949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.05035608086533731</v>
+        <v>-0.0463090141726277</v>
       </c>
       <c r="C61">
-        <v>0.05325234583421308</v>
+        <v>0.05453111564825881</v>
       </c>
       <c r="D61">
-        <v>-0.0230521754664959</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05395368804683127</v>
+      </c>
+      <c r="E61">
+        <v>-0.07391823171653909</v>
+      </c>
+      <c r="F61">
+        <v>0.0001609487672960606</v>
+      </c>
+      <c r="G61">
+        <v>-0.06504573606432133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01763366907474281</v>
+        <v>-0.01760308357236173</v>
       </c>
       <c r="C63">
-        <v>0.03392459772366221</v>
+        <v>0.03044005775393686</v>
       </c>
       <c r="D63">
-        <v>0.0187210692267026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02804339193783052</v>
+      </c>
+      <c r="E63">
+        <v>-0.09084232014445072</v>
+      </c>
+      <c r="F63">
+        <v>-0.02022117946466764</v>
+      </c>
+      <c r="G63">
+        <v>-0.03166269300949012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05519587572225575</v>
+        <v>-0.05844780312786604</v>
       </c>
       <c r="C64">
-        <v>0.04596171014068211</v>
+        <v>0.05934041180150056</v>
       </c>
       <c r="D64">
-        <v>-0.008565363634979149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02016220453760295</v>
+      </c>
+      <c r="E64">
+        <v>-0.06029555674957005</v>
+      </c>
+      <c r="F64">
+        <v>0.01238607496207245</v>
+      </c>
+      <c r="G64">
+        <v>-0.08068241314995522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07954638040374894</v>
+        <v>-0.06535758810438673</v>
       </c>
       <c r="C65">
-        <v>0.02633113454957472</v>
+        <v>0.02622167608737766</v>
       </c>
       <c r="D65">
-        <v>-0.05596724836163617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09695519290982153</v>
+      </c>
+      <c r="E65">
+        <v>-0.05812467644396867</v>
+      </c>
+      <c r="F65">
+        <v>-0.03523555425892009</v>
+      </c>
+      <c r="G65">
+        <v>0.0570475362454186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06420991738806976</v>
+        <v>-0.05598008581606567</v>
       </c>
       <c r="C66">
-        <v>0.07716934108092947</v>
+        <v>0.07631035598267251</v>
       </c>
       <c r="D66">
-        <v>-0.04298841330434976</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08823663963320907</v>
+      </c>
+      <c r="E66">
+        <v>-0.0904508426192232</v>
+      </c>
+      <c r="F66">
+        <v>0.00111078379342962</v>
+      </c>
+      <c r="G66">
+        <v>-0.05136228286545581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05072830445522801</v>
+        <v>-0.04307546561540521</v>
       </c>
       <c r="C67">
-        <v>0.03161979977166392</v>
+        <v>0.0284052557536011</v>
       </c>
       <c r="D67">
-        <v>0.02381974690407897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008566192769396221</v>
+      </c>
+      <c r="E67">
+        <v>-0.04307515976175894</v>
+      </c>
+      <c r="F67">
+        <v>-0.003257477210937287</v>
+      </c>
+      <c r="G67">
+        <v>-0.010724739460811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1248784121405009</v>
+        <v>-0.1495740403751452</v>
       </c>
       <c r="C68">
-        <v>-0.2844063773965672</v>
+        <v>-0.2441589477699285</v>
       </c>
       <c r="D68">
-        <v>0.01004179281688273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.007600679604713115</v>
+      </c>
+      <c r="E68">
+        <v>-0.04955306351628254</v>
+      </c>
+      <c r="F68">
+        <v>-0.008876644525673558</v>
+      </c>
+      <c r="G68">
+        <v>0.007367466059303635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09503283133724294</v>
+        <v>-0.09055245225791846</v>
       </c>
       <c r="C69">
-        <v>0.07439436452514131</v>
+        <v>0.08872474146727802</v>
       </c>
       <c r="D69">
-        <v>0.0466991808034659</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00384468281071949</v>
+      </c>
+      <c r="E69">
+        <v>-0.07864519103478167</v>
+      </c>
+      <c r="F69">
+        <v>0.006414517551422239</v>
+      </c>
+      <c r="G69">
+        <v>-0.07479449624298175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1125973951316796</v>
+        <v>-0.1431269606506158</v>
       </c>
       <c r="C71">
-        <v>-0.2619890849100543</v>
+        <v>-0.2455638540775985</v>
       </c>
       <c r="D71">
-        <v>-0.01232541503254088</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01061561532232929</v>
+      </c>
+      <c r="E71">
+        <v>-0.06810347214985776</v>
+      </c>
+      <c r="F71">
+        <v>-0.02740876327969332</v>
+      </c>
+      <c r="G71">
+        <v>-0.03980583987354613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1015935424327835</v>
+        <v>-0.1065235309550248</v>
       </c>
       <c r="C72">
-        <v>0.04904872571512871</v>
+        <v>0.05022079714389431</v>
       </c>
       <c r="D72">
-        <v>-0.01717453819588588</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05362714289006051</v>
+      </c>
+      <c r="E72">
+        <v>-0.04921899567872788</v>
+      </c>
+      <c r="F72">
+        <v>-0.03482831950591336</v>
+      </c>
+      <c r="G72">
+        <v>-0.06443300852843716</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3741353090479966</v>
+        <v>-0.3194734615231751</v>
       </c>
       <c r="C73">
-        <v>0.06680143811797293</v>
+        <v>0.07667263490108521</v>
       </c>
       <c r="D73">
-        <v>-0.5698675048612647</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.48315051336715</v>
+      </c>
+      <c r="E73">
+        <v>0.5149597227060486</v>
+      </c>
+      <c r="F73">
+        <v>-0.1685622919087426</v>
+      </c>
+      <c r="G73">
+        <v>0.02462413663593934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1067813265819855</v>
+        <v>-0.1109293159262626</v>
       </c>
       <c r="C74">
-        <v>0.09304497840519414</v>
+        <v>0.091099884597339</v>
       </c>
       <c r="D74">
-        <v>0.05661487506586514</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04602004798782641</v>
+      </c>
+      <c r="E74">
+        <v>-0.0638361712278037</v>
+      </c>
+      <c r="F74">
+        <v>-0.0354364666116161</v>
+      </c>
+      <c r="G74">
+        <v>-0.02869109835484238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2547582113447059</v>
+        <v>-0.2568829424702294</v>
       </c>
       <c r="C75">
-        <v>0.08616343803379277</v>
+        <v>0.1227661927993708</v>
       </c>
       <c r="D75">
-        <v>0.1659199500151248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1633403634371012</v>
+      </c>
+      <c r="E75">
+        <v>-0.007344674518506838</v>
+      </c>
+      <c r="F75">
+        <v>-0.02063527850191368</v>
+      </c>
+      <c r="G75">
+        <v>0.03174915269485046</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1200168101221843</v>
+        <v>-0.1314644021052175</v>
       </c>
       <c r="C76">
-        <v>0.07657670462475261</v>
+        <v>0.08932373458523561</v>
       </c>
       <c r="D76">
-        <v>0.09361966781351197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07791950391589177</v>
+      </c>
+      <c r="E76">
+        <v>-0.08648773739121011</v>
+      </c>
+      <c r="F76">
+        <v>-0.007029276577399301</v>
+      </c>
+      <c r="G76">
+        <v>-0.02461305164066082</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08403311077400764</v>
+        <v>-0.06923085289205957</v>
       </c>
       <c r="C77">
-        <v>0.03390379792600656</v>
+        <v>0.05575288109092938</v>
       </c>
       <c r="D77">
-        <v>-0.05536882810494424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07723884221276674</v>
+      </c>
+      <c r="E77">
+        <v>-0.1241223972504737</v>
+      </c>
+      <c r="F77">
+        <v>0.2068183016711268</v>
+      </c>
+      <c r="G77">
+        <v>0.1362090074132982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04889591368948182</v>
+        <v>-0.04834107181325197</v>
       </c>
       <c r="C78">
-        <v>0.03974789783347375</v>
+        <v>0.05114690755991407</v>
       </c>
       <c r="D78">
-        <v>-0.04368206615904929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08028592465879947</v>
+      </c>
+      <c r="E78">
+        <v>-0.08628395583106251</v>
+      </c>
+      <c r="F78">
+        <v>-2.833932342572188e-05</v>
+      </c>
+      <c r="G78">
+        <v>-0.05058541064948588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001392217282153153</v>
+        <v>-0.03680771988875092</v>
       </c>
       <c r="C79">
-        <v>0.0003432377276425449</v>
+        <v>0.04984995589515833</v>
       </c>
       <c r="D79">
-        <v>-0.005006730882484336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.09177031998971512</v>
+      </c>
+      <c r="E79">
+        <v>-0.0758683115061706</v>
+      </c>
+      <c r="F79">
+        <v>-0.03848184524194626</v>
+      </c>
+      <c r="G79">
+        <v>-0.117923350148128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03618271417778832</v>
+        <v>-0.0291423799366101</v>
       </c>
       <c r="C80">
-        <v>0.04723114013198465</v>
+        <v>0.04882096478633356</v>
       </c>
       <c r="D80">
-        <v>-0.03413775201449469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04349779780088303</v>
+      </c>
+      <c r="E80">
+        <v>-0.02727718028403736</v>
+      </c>
+      <c r="F80">
+        <v>0.04321831328708927</v>
+      </c>
+      <c r="G80">
+        <v>-0.01108726188029776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1483019508750133</v>
+        <v>-0.1443266741339623</v>
       </c>
       <c r="C81">
-        <v>0.06522468696419569</v>
+        <v>0.0883574334176913</v>
       </c>
       <c r="D81">
-        <v>0.1425586437388189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1290350445088703</v>
+      </c>
+      <c r="E81">
+        <v>-0.05602841290767848</v>
+      </c>
+      <c r="F81">
+        <v>-0.007741421049044911</v>
+      </c>
+      <c r="G81">
+        <v>0.005685709129449002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2186402126506704</v>
+        <v>-0.2390347473423317</v>
       </c>
       <c r="C82">
-        <v>0.08971561389490985</v>
+        <v>0.1597044067735103</v>
       </c>
       <c r="D82">
-        <v>0.1909450994662413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2499455276741431</v>
+      </c>
+      <c r="E82">
+        <v>0.04997524788664737</v>
+      </c>
+      <c r="F82">
+        <v>0.0714999216077596</v>
+      </c>
+      <c r="G82">
+        <v>-0.371281565765127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04348859147943369</v>
+        <v>-0.02914861755174817</v>
       </c>
       <c r="C83">
-        <v>0.03974426126566755</v>
+        <v>0.04818905657874255</v>
       </c>
       <c r="D83">
-        <v>-0.04619152124250542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03643424673788016</v>
+      </c>
+      <c r="E83">
+        <v>-0.03195503879392967</v>
+      </c>
+      <c r="F83">
+        <v>0.02292694757648955</v>
+      </c>
+      <c r="G83">
+        <v>0.00903029395907227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001628020328452462</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00111341265306852</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0006170802282970788</v>
+      </c>
+      <c r="E84">
+        <v>-0.007191829165373415</v>
+      </c>
+      <c r="F84">
+        <v>-0.002543494096797948</v>
+      </c>
+      <c r="G84">
+        <v>0.005191624591324953</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2059422111006192</v>
+        <v>-0.1929369775068648</v>
       </c>
       <c r="C85">
-        <v>0.09385041540671542</v>
+        <v>0.1109648214861189</v>
       </c>
       <c r="D85">
-        <v>0.1780987083786378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1444459751083121</v>
+      </c>
+      <c r="E85">
+        <v>0.01191114471978675</v>
+      </c>
+      <c r="F85">
+        <v>-0.09614870694112909</v>
+      </c>
+      <c r="G85">
+        <v>-0.002592539193981613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01142837763407153</v>
+        <v>-0.01551516176279085</v>
       </c>
       <c r="C86">
-        <v>0.02818987293336763</v>
+        <v>0.01600183366165283</v>
       </c>
       <c r="D86">
-        <v>-0.04408039037189558</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0819447815357984</v>
+      </c>
+      <c r="E86">
+        <v>-0.1022546998981069</v>
+      </c>
+      <c r="F86">
+        <v>0.01437317933145978</v>
+      </c>
+      <c r="G86">
+        <v>-0.06539688685870797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03398662330216737</v>
+        <v>-0.03321858929529477</v>
       </c>
       <c r="C87">
-        <v>-0.0007063274290110139</v>
+        <v>0.01312406879392457</v>
       </c>
       <c r="D87">
-        <v>-0.05935884614503408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09771899360987944</v>
+      </c>
+      <c r="E87">
+        <v>-0.1404222375402375</v>
+      </c>
+      <c r="F87">
+        <v>0.04508820830890074</v>
+      </c>
+      <c r="G87">
+        <v>0.03056651179096274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1142677226317052</v>
+        <v>-0.0959338897580683</v>
       </c>
       <c r="C88">
-        <v>0.08188466031414646</v>
+        <v>0.06848941939919931</v>
       </c>
       <c r="D88">
-        <v>0.01796417035190458</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01721630998011832</v>
+      </c>
+      <c r="E88">
+        <v>-0.0538358084107373</v>
+      </c>
+      <c r="F88">
+        <v>0.01658352701033068</v>
+      </c>
+      <c r="G88">
+        <v>-0.04257258521689686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1793239236500994</v>
+        <v>-0.2157215794664334</v>
       </c>
       <c r="C89">
-        <v>-0.3781538930715823</v>
+        <v>-0.3811223320812009</v>
       </c>
       <c r="D89">
-        <v>0.02885612672110809</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.008860153055601007</v>
+      </c>
+      <c r="E89">
+        <v>-0.07628689489905566</v>
+      </c>
+      <c r="F89">
+        <v>0.06468277826895595</v>
+      </c>
+      <c r="G89">
+        <v>-0.02391758492388121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1708247063842659</v>
+        <v>-0.196535807901237</v>
       </c>
       <c r="C90">
-        <v>-0.3335280213809831</v>
+        <v>-0.3101400413588354</v>
       </c>
       <c r="D90">
-        <v>0.03928329249644306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01131481642381875</v>
+      </c>
+      <c r="E90">
+        <v>-0.06192259854350577</v>
+      </c>
+      <c r="F90">
+        <v>0.005002146979350176</v>
+      </c>
+      <c r="G90">
+        <v>0.003628817510476069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.192148250284373</v>
+        <v>-0.187471709645654</v>
       </c>
       <c r="C91">
-        <v>0.1209389905854619</v>
+        <v>0.1411144829634158</v>
       </c>
       <c r="D91">
-        <v>0.1532318086554255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1359707824277236</v>
+      </c>
+      <c r="E91">
+        <v>-0.04941353550941087</v>
+      </c>
+      <c r="F91">
+        <v>-0.005019786857858159</v>
+      </c>
+      <c r="G91">
+        <v>0.004453526822935353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1549015830563681</v>
+        <v>-0.177102935776278</v>
       </c>
       <c r="C92">
-        <v>-0.29218803362396</v>
+        <v>-0.2977577293844191</v>
       </c>
       <c r="D92">
-        <v>0.02424647746649038</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.007562657866049073</v>
+      </c>
+      <c r="E92">
+        <v>-0.08234258428725257</v>
+      </c>
+      <c r="F92">
+        <v>0.02381324001858117</v>
+      </c>
+      <c r="G92">
+        <v>-0.03910041726117121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1879870034619583</v>
+        <v>-0.2128402922972838</v>
       </c>
       <c r="C93">
-        <v>-0.3458539476054208</v>
+        <v>-0.3217874973588383</v>
       </c>
       <c r="D93">
-        <v>0.04442561396432236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01864069442324101</v>
+      </c>
+      <c r="E93">
+        <v>-0.03330754813438361</v>
+      </c>
+      <c r="F93">
+        <v>-0.02102338751153522</v>
+      </c>
+      <c r="G93">
+        <v>-0.04730153421690859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.357648872378844</v>
+        <v>-0.3496246789633943</v>
       </c>
       <c r="C94">
-        <v>0.1177587443222908</v>
+        <v>0.1706572088798098</v>
       </c>
       <c r="D94">
-        <v>0.4502497094797305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4250736282060212</v>
+      </c>
+      <c r="E94">
+        <v>0.1016287744875565</v>
+      </c>
+      <c r="F94">
+        <v>0.1028170892854951</v>
+      </c>
+      <c r="G94">
+        <v>0.5322257862073353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1111064075829177</v>
+        <v>-0.08230640826527888</v>
       </c>
       <c r="C95">
-        <v>0.03713099130629733</v>
+        <v>0.05384109366464376</v>
       </c>
       <c r="D95">
-        <v>-0.2878983939200651</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2270711063561986</v>
+      </c>
+      <c r="E95">
+        <v>0.05889863114658555</v>
+      </c>
+      <c r="F95">
+        <v>0.8968665216436181</v>
+      </c>
+      <c r="G95">
+        <v>0.06268533238077607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1890932474917484</v>
+        <v>-0.1853255080868733</v>
       </c>
       <c r="C98">
-        <v>0.02957889146392095</v>
+        <v>0.04866408522622853</v>
       </c>
       <c r="D98">
-        <v>-0.2207385285411628</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.208456833010231</v>
+      </c>
+      <c r="E98">
+        <v>0.1534988778736973</v>
+      </c>
+      <c r="F98">
+        <v>-0.1088429271897084</v>
+      </c>
+      <c r="G98">
+        <v>-0.04231812447496286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01076601595441253</v>
+        <v>-0.00810532737800942</v>
       </c>
       <c r="C101">
-        <v>0.02979419674386734</v>
+        <v>0.02695315375408747</v>
       </c>
       <c r="D101">
-        <v>0.00448485917021669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03492771804769872</v>
+      </c>
+      <c r="E101">
+        <v>-0.08427813088519166</v>
+      </c>
+      <c r="F101">
+        <v>0.003959219586037079</v>
+      </c>
+      <c r="G101">
+        <v>-0.05938911765976623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1200224167591554</v>
+        <v>-0.1226512014974815</v>
       </c>
       <c r="C102">
-        <v>0.06491149577475616</v>
+        <v>0.09873352358322272</v>
       </c>
       <c r="D102">
-        <v>0.05855974830233813</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06239279506365308</v>
+      </c>
+      <c r="E102">
+        <v>0.003261499641866073</v>
+      </c>
+      <c r="F102">
+        <v>0.02693260286641257</v>
+      </c>
+      <c r="G102">
+        <v>-0.04138776726526939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
